--- a/TCC (1).xlsx
+++ b/TCC (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Outros\Oscar\TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7644A7-C131-4196-AF95-32086F46DD03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDF79D1-86C7-4F2F-85F5-5547FEB5B305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{1A5987FF-C598-45A3-B65A-80EA07F65CBA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
   <si>
     <t>Titulo</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Politicas Publicas</t>
+  </si>
+  <si>
+    <t>Revisão bibliografica e estudo de casos</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -525,6 +528,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -665,16 +692,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,6 +723,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,8 +1397,8 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1513,7 @@
       <c r="D3" s="29">
         <v>2017</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="45" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -1496,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>28</v>
@@ -1576,7 +1603,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>39</v>
@@ -1594,44 +1621,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="58" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:14" s="55" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="49">
         <v>2019</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1689,7 +1716,7 @@
       <c r="D8" s="30">
         <v>2018</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="58" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="34" t="s">
@@ -1730,7 +1757,7 @@
       <c r="D9" s="30">
         <v>2017</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="57" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -1769,7 +1796,7 @@
       <c r="D10" s="30">
         <v>2019</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="56" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -1807,7 +1834,7 @@
       <c r="D11" s="29">
         <v>2019</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="8" t="s">
         <v>80</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -1817,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>81</v>
@@ -1893,7 +1920,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>81</v>
